--- a/tests/vlaanderen/reference/tussenresultaten/groepenverdeling/2023/Verdeling_over_groepen_Beroepsbevolking.xlsx
+++ b/tests/vlaanderen/reference/tussenresultaten/groepenverdeling/2023/Verdeling_over_groepen_Beroepsbevolking.xlsx
@@ -730,178 +730,178 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0044</v>
+        <v>0.004356561767175242</v>
       </c>
       <c r="E2">
-        <v>0.0704</v>
+        <v>0.07043108190266641</v>
       </c>
       <c r="F2">
-        <v>0.0282</v>
+        <v>0.02817243276106656</v>
       </c>
       <c r="G2">
-        <v>0.0352</v>
+        <v>0.0352155409513332</v>
       </c>
       <c r="H2">
-        <v>0.007</v>
+        <v>0.007043108190266639</v>
       </c>
       <c r="I2">
-        <v>0.0012</v>
+        <v>0.001182157600782338</v>
       </c>
       <c r="J2">
-        <v>0.0153</v>
+        <v>0.01528923830345157</v>
       </c>
       <c r="K2">
-        <v>0.0191</v>
+        <v>0.01911154787931446</v>
       </c>
       <c r="L2">
-        <v>0.0038</v>
+        <v>0.003822309575862893</v>
       </c>
       <c r="M2">
-        <v>0.002</v>
+        <v>0.001970262667970563</v>
       </c>
       <c r="N2">
-        <v>0.0255</v>
+        <v>0.02548206383908595</v>
       </c>
       <c r="O2">
-        <v>0.0319</v>
+        <v>0.03185257979885744</v>
       </c>
       <c r="P2">
-        <v>0.0064</v>
+        <v>0.006370515959771488</v>
       </c>
       <c r="Q2">
-        <v>0.0038</v>
+        <v>0.003756324368142208</v>
       </c>
       <c r="R2">
-        <v>0.0001</v>
+        <v>0.0001161749804580065</v>
       </c>
       <c r="S2">
-        <v>0.0057</v>
+        <v>0.005692574042442316</v>
       </c>
       <c r="T2">
-        <v>0.092</v>
+        <v>0.0920299470194841</v>
       </c>
       <c r="U2">
-        <v>0.0368</v>
+        <v>0.03681197880779364</v>
       </c>
       <c r="V2">
-        <v>0.046</v>
+        <v>0.04601497350974205</v>
       </c>
       <c r="W2">
-        <v>0.0092</v>
+        <v>0.00920299470194841</v>
       </c>
       <c r="X2">
-        <v>0.0007</v>
+        <v>0.0006800932052111288</v>
       </c>
       <c r="Y2">
-        <v>0.008800000000000001</v>
+        <v>0.008795872120730599</v>
       </c>
       <c r="Z2">
-        <v>0.011</v>
+        <v>0.01099484015091325</v>
       </c>
       <c r="AA2">
-        <v>0.0022</v>
+        <v>0.00219896803018265</v>
       </c>
       <c r="AB2">
-        <v>0.001</v>
+        <v>0.001020139807816693</v>
       </c>
       <c r="AC2">
-        <v>0.0132</v>
+        <v>0.0131938081810959</v>
       </c>
       <c r="AD2">
-        <v>0.0165</v>
+        <v>0.01649226022636987</v>
       </c>
       <c r="AE2">
-        <v>0.0033</v>
+        <v>0.003298452045273974</v>
       </c>
       <c r="AF2">
-        <v>0.0386</v>
+        <v>0.03861970990996207</v>
       </c>
       <c r="AG2">
-        <v>0.0012</v>
+        <v>0.001194424017833878</v>
       </c>
       <c r="AH2">
-        <v>0.0056</v>
+        <v>0.005630856084074</v>
       </c>
       <c r="AI2">
-        <v>0.091</v>
+        <v>0.09103217335919633</v>
       </c>
       <c r="AJ2">
-        <v>0.0364</v>
+        <v>0.03641286934367853</v>
       </c>
       <c r="AK2">
-        <v>0.0455</v>
+        <v>0.04551608667959817</v>
       </c>
       <c r="AL2">
-        <v>0.0091</v>
+        <v>0.009103217335919633</v>
       </c>
       <c r="AM2">
-        <v>0.0003</v>
+        <v>0.0003418509670101327</v>
       </c>
       <c r="AN2">
-        <v>0.0044</v>
+        <v>0.004421272506664384</v>
       </c>
       <c r="AO2">
-        <v>0.0055</v>
+        <v>0.005526590633330479</v>
       </c>
       <c r="AP2">
-        <v>0.0011</v>
+        <v>0.001105318126666096</v>
       </c>
       <c r="AQ2">
-        <v>0.0003</v>
+        <v>0.0003418509670101327</v>
       </c>
       <c r="AR2">
-        <v>0.0044</v>
+        <v>0.004421272506664384</v>
       </c>
       <c r="AS2">
-        <v>0.0055</v>
+        <v>0.005526590633330479</v>
       </c>
       <c r="AT2">
-        <v>0.0011</v>
+        <v>0.001105318126666096</v>
       </c>
       <c r="AU2">
-        <v>0.0623</v>
+        <v>0.06232532931878059</v>
       </c>
       <c r="AV2">
-        <v>0.0019</v>
+        <v>0.001927587504704554</v>
       </c>
       <c r="AW2">
-        <v>0.0051</v>
+        <v>0.005081821603312007</v>
       </c>
       <c r="AX2">
-        <v>0.0822</v>
+        <v>0.08215611592021077</v>
       </c>
       <c r="AY2">
-        <v>0.0329</v>
+        <v>0.03286244636808431</v>
       </c>
       <c r="AZ2">
-        <v>0.0411</v>
+        <v>0.04107805796010539</v>
       </c>
       <c r="BA2">
-        <v>0.008200000000000001</v>
+        <v>0.008215611592021077</v>
       </c>
       <c r="BB2">
-        <v>0.0002</v>
+        <v>0.0001545482613996692</v>
       </c>
       <c r="BC2">
-        <v>0.002</v>
+        <v>0.001998824180769055</v>
       </c>
       <c r="BD2">
-        <v>0.0025</v>
+        <v>0.002498530225961319</v>
       </c>
       <c r="BE2">
-        <v>0.0005</v>
+        <v>0.0004997060451922638</v>
       </c>
       <c r="BF2">
-        <v>0.0003</v>
+        <v>0.0003090965227993385</v>
       </c>
       <c r="BG2">
-        <v>0.004</v>
+        <v>0.003997648361538111</v>
       </c>
       <c r="BH2">
-        <v>0.005</v>
+        <v>0.004997060451922638</v>
       </c>
       <c r="BI2">
-        <v>0.001</v>
+        <v>0.0009994120903845276</v>
       </c>
     </row>
     <row r="3" spans="1:61">
@@ -915,178 +915,178 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0043</v>
+        <v>0.004340978442760114</v>
       </c>
       <c r="E3">
-        <v>0.0702</v>
+        <v>0.07017915149128851</v>
       </c>
       <c r="F3">
-        <v>0.0281</v>
+        <v>0.0280716605965154</v>
       </c>
       <c r="G3">
-        <v>0.0351</v>
+        <v>0.03508957574564425</v>
       </c>
       <c r="H3">
-        <v>0.007</v>
+        <v>0.00701791514912885</v>
       </c>
       <c r="I3">
-        <v>0.0012</v>
+        <v>0.001178904978058643</v>
       </c>
       <c r="J3">
-        <v>0.0152</v>
+        <v>0.01524717104955845</v>
       </c>
       <c r="K3">
-        <v>0.0191</v>
+        <v>0.01905896381194807</v>
       </c>
       <c r="L3">
-        <v>0.0038</v>
+        <v>0.003811792762389613</v>
       </c>
       <c r="M3">
-        <v>0.002</v>
+        <v>0.001964841630097739</v>
       </c>
       <c r="N3">
-        <v>0.0254</v>
+        <v>0.02541195174926409</v>
       </c>
       <c r="O3">
-        <v>0.0318</v>
+        <v>0.03176493968658011</v>
       </c>
       <c r="P3">
-        <v>0.0064</v>
+        <v>0.006352987937316023</v>
       </c>
       <c r="Q3">
-        <v>0.0038</v>
+        <v>0.003758165173737573</v>
       </c>
       <c r="R3">
-        <v>0.0001</v>
+        <v>0.0001162319125898218</v>
       </c>
       <c r="S3">
-        <v>0.0057</v>
+        <v>0.00569536371690127</v>
       </c>
       <c r="T3">
-        <v>0.0921</v>
+        <v>0.09207504675657054</v>
       </c>
       <c r="U3">
-        <v>0.0368</v>
+        <v>0.03683001870262822</v>
       </c>
       <c r="V3">
-        <v>0.046</v>
+        <v>0.04603752337828527</v>
       </c>
       <c r="W3">
-        <v>0.0092</v>
+        <v>0.009207504675657055</v>
       </c>
       <c r="X3">
-        <v>0.0007</v>
+        <v>0.0006814717278369642</v>
       </c>
       <c r="Y3">
-        <v>0.008800000000000001</v>
+        <v>0.00881370101335807</v>
       </c>
       <c r="Z3">
-        <v>0.011</v>
+        <v>0.01101712626669759</v>
       </c>
       <c r="AA3">
-        <v>0.0022</v>
+        <v>0.002203425253339518</v>
       </c>
       <c r="AB3">
-        <v>0.001</v>
+        <v>0.001022207591755446</v>
       </c>
       <c r="AC3">
-        <v>0.0132</v>
+        <v>0.0132205515200371</v>
       </c>
       <c r="AD3">
-        <v>0.0165</v>
+        <v>0.01652568940004638</v>
       </c>
       <c r="AE3">
-        <v>0.0033</v>
+        <v>0.003305137880009276</v>
       </c>
       <c r="AF3">
-        <v>0.0385</v>
+        <v>0.0384815680677232</v>
       </c>
       <c r="AG3">
-        <v>0.0012</v>
+        <v>0.001190151589723398</v>
       </c>
       <c r="AH3">
-        <v>0.0056</v>
+        <v>0.005610714637267447</v>
       </c>
       <c r="AI3">
-        <v>0.0907</v>
+        <v>0.0907065533024904</v>
       </c>
       <c r="AJ3">
-        <v>0.0363</v>
+        <v>0.03628262132099616</v>
       </c>
       <c r="AK3">
-        <v>0.0454</v>
+        <v>0.0453532766512452</v>
       </c>
       <c r="AL3">
-        <v>0.0091</v>
+        <v>0.00907065533024904</v>
       </c>
       <c r="AM3">
-        <v>0.0003</v>
+        <v>0.0003419294119628252</v>
       </c>
       <c r="AN3">
-        <v>0.0044</v>
+        <v>0.004422287061385873</v>
       </c>
       <c r="AO3">
-        <v>0.0055</v>
+        <v>0.005527858826732341</v>
       </c>
       <c r="AP3">
-        <v>0.0011</v>
+        <v>0.001105571765346468</v>
       </c>
       <c r="AQ3">
-        <v>0.0003</v>
+        <v>0.0003419294119628252</v>
       </c>
       <c r="AR3">
-        <v>0.0044</v>
+        <v>0.004422287061385873</v>
       </c>
       <c r="AS3">
-        <v>0.0055</v>
+        <v>0.005527858826732341</v>
       </c>
       <c r="AT3">
-        <v>0.0011</v>
+        <v>0.001105571765346468</v>
       </c>
       <c r="AU3">
-        <v>0.06270000000000001</v>
+        <v>0.06265566000590611</v>
       </c>
       <c r="AV3">
-        <v>0.0019</v>
+        <v>0.001937803917708436</v>
       </c>
       <c r="AW3">
-        <v>0.0051</v>
+        <v>0.005108755783049513</v>
       </c>
       <c r="AX3">
-        <v>0.08260000000000001</v>
+        <v>0.0825915518259671</v>
       </c>
       <c r="AY3">
-        <v>0.033</v>
+        <v>0.03303662073038684</v>
       </c>
       <c r="AZ3">
-        <v>0.0413</v>
+        <v>0.04129577591298355</v>
       </c>
       <c r="BA3">
-        <v>0.0083</v>
+        <v>0.008259155182596711</v>
       </c>
       <c r="BB3">
-        <v>0.0002</v>
+        <v>0.0001562384161085178</v>
       </c>
       <c r="BC3">
-        <v>0.002</v>
+        <v>0.002020683515003497</v>
       </c>
       <c r="BD3">
-        <v>0.0025</v>
+        <v>0.002525854393754371</v>
       </c>
       <c r="BE3">
-        <v>0.0005</v>
+        <v>0.0005051708787508744</v>
       </c>
       <c r="BF3">
-        <v>0.0003</v>
+        <v>0.0003124768322170356</v>
       </c>
       <c r="BG3">
-        <v>0.004</v>
+        <v>0.004041367030006995</v>
       </c>
       <c r="BH3">
-        <v>0.0051</v>
+        <v>0.005051708787508742</v>
       </c>
       <c r="BI3">
-        <v>0.001</v>
+        <v>0.001010341757501749</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -1100,178 +1100,178 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0045</v>
+        <v>0.004490526315789473</v>
       </c>
       <c r="E4">
-        <v>0.0726</v>
+        <v>0.07259684210526315</v>
       </c>
       <c r="F4">
-        <v>0.029</v>
+        <v>0.02903873684210526</v>
       </c>
       <c r="G4">
-        <v>0.0363</v>
+        <v>0.03629842105263158</v>
       </c>
       <c r="H4">
-        <v>0.0073</v>
+        <v>0.007259684210526315</v>
       </c>
       <c r="I4">
-        <v>0.0011</v>
+        <v>0.001122631578947368</v>
       </c>
       <c r="J4">
-        <v>0.0145</v>
+        <v>0.01451936842105263</v>
       </c>
       <c r="K4">
-        <v>0.0181</v>
+        <v>0.01814921052631579</v>
       </c>
       <c r="L4">
-        <v>0.0036</v>
+        <v>0.003629842105263157</v>
       </c>
       <c r="M4">
-        <v>0.0019</v>
+        <v>0.001871052631578947</v>
       </c>
       <c r="N4">
-        <v>0.0242</v>
+        <v>0.02419894736842105</v>
       </c>
       <c r="O4">
-        <v>0.0302</v>
+        <v>0.03024868421052632</v>
       </c>
       <c r="P4">
-        <v>0.006</v>
+        <v>0.006049736842105262</v>
       </c>
       <c r="Q4">
-        <v>0.0039</v>
+        <v>0.003888168421052632</v>
       </c>
       <c r="R4">
-        <v>0.0001</v>
+        <v>0.0001202526315789474</v>
       </c>
       <c r="S4">
-        <v>0.0059</v>
+        <v>0.005892378947368422</v>
       </c>
       <c r="T4">
-        <v>0.0953</v>
+        <v>0.09526012631578949</v>
       </c>
       <c r="U4">
-        <v>0.0381</v>
+        <v>0.0381040505263158</v>
       </c>
       <c r="V4">
-        <v>0.0476</v>
+        <v>0.04763006315789475</v>
       </c>
       <c r="W4">
-        <v>0.0095</v>
+        <v>0.009526012631578949</v>
       </c>
       <c r="X4">
-        <v>0.0005999999999999999</v>
+        <v>0.0006012631578947369</v>
       </c>
       <c r="Y4">
-        <v>0.0078</v>
+        <v>0.007776336842105264</v>
       </c>
       <c r="Z4">
-        <v>0.0097</v>
+        <v>0.00972042105263158</v>
       </c>
       <c r="AA4">
-        <v>0.0019</v>
+        <v>0.001944084210526316</v>
       </c>
       <c r="AB4">
-        <v>0.0009</v>
+        <v>0.0009018947368421053</v>
       </c>
       <c r="AC4">
-        <v>0.0117</v>
+        <v>0.0116645052631579</v>
       </c>
       <c r="AD4">
-        <v>0.0146</v>
+        <v>0.01458063157894737</v>
       </c>
       <c r="AE4">
-        <v>0.0029</v>
+        <v>0.002916126315789474</v>
       </c>
       <c r="AF4">
-        <v>0.0398</v>
+        <v>0.03980726842105263</v>
       </c>
       <c r="AG4">
-        <v>0.0012</v>
+        <v>0.001231152631578947</v>
       </c>
       <c r="AH4">
-        <v>0.0058</v>
+        <v>0.005804005263157894</v>
       </c>
       <c r="AI4">
-        <v>0.09379999999999999</v>
+        <v>0.09383141842105264</v>
       </c>
       <c r="AJ4">
-        <v>0.0375</v>
+        <v>0.03753256736842105</v>
       </c>
       <c r="AK4">
-        <v>0.0469</v>
+        <v>0.04691570921052632</v>
       </c>
       <c r="AL4">
-        <v>0.0094</v>
+        <v>0.009383141842105263</v>
       </c>
       <c r="AM4">
-        <v>0.0002</v>
+        <v>0.0002245263157894737</v>
       </c>
       <c r="AN4">
-        <v>0.0029</v>
+        <v>0.002903873684210526</v>
       </c>
       <c r="AO4">
-        <v>0.0036</v>
+        <v>0.003629842105263157</v>
       </c>
       <c r="AP4">
-        <v>0.0007</v>
+        <v>0.0007259684210526316</v>
       </c>
       <c r="AQ4">
-        <v>0.0002</v>
+        <v>0.0002245263157894737</v>
       </c>
       <c r="AR4">
-        <v>0.0029</v>
+        <v>0.002903873684210526</v>
       </c>
       <c r="AS4">
-        <v>0.0036</v>
+        <v>0.003629842105263157</v>
       </c>
       <c r="AT4">
-        <v>0.0007</v>
+        <v>0.0007259684210526316</v>
       </c>
       <c r="AU4">
-        <v>0.0648</v>
+        <v>0.06482305789473684</v>
       </c>
       <c r="AV4">
-        <v>0.002</v>
+        <v>0.002004836842105263</v>
       </c>
       <c r="AW4">
-        <v>0.0053</v>
+        <v>0.005285478947368421</v>
       </c>
       <c r="AX4">
-        <v>0.0854</v>
+        <v>0.08544857631578948</v>
       </c>
       <c r="AY4">
-        <v>0.0342</v>
+        <v>0.03417943052631579</v>
       </c>
       <c r="AZ4">
-        <v>0.0427</v>
+        <v>0.04272428815789474</v>
       </c>
       <c r="BA4">
-        <v>0.008500000000000001</v>
+        <v>0.008544857631578947</v>
       </c>
       <c r="BB4">
-        <v>0.0001</v>
+        <v>7.515789473684211E-05</v>
       </c>
       <c r="BC4">
-        <v>0.001</v>
+        <v>0.000972042105263158</v>
       </c>
       <c r="BD4">
-        <v>0.0012</v>
+        <v>0.001215052631578947</v>
       </c>
       <c r="BE4">
-        <v>0.0002</v>
+        <v>0.0002430105263157895</v>
       </c>
       <c r="BF4">
-        <v>0.0002</v>
+        <v>0.0001503157894736842</v>
       </c>
       <c r="BG4">
-        <v>0.0019</v>
+        <v>0.001944084210526316</v>
       </c>
       <c r="BH4">
-        <v>0.0024</v>
+        <v>0.002430105263157895</v>
       </c>
       <c r="BI4">
-        <v>0.0005</v>
+        <v>0.000486021052631579</v>
       </c>
     </row>
     <row r="5" spans="1:61">
@@ -1285,154 +1285,154 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0049</v>
+        <v>0.004934674922600619</v>
       </c>
       <c r="E5">
-        <v>0.1117</v>
+        <v>0.1116881424148607</v>
       </c>
       <c r="F5">
-        <v>0.016</v>
+        <v>0.01595544891640867</v>
       </c>
       <c r="G5">
-        <v>0.0239</v>
+        <v>0.023933173374613</v>
       </c>
       <c r="H5">
-        <v>0.008</v>
+        <v>0.007977724458204336</v>
       </c>
       <c r="I5">
-        <v>0.0009</v>
+        <v>0.0008972136222910217</v>
       </c>
       <c r="J5">
-        <v>0.009599999999999999</v>
+        <v>0.0095732693498452</v>
       </c>
       <c r="K5">
-        <v>0.0145</v>
+        <v>0.01450495356037152</v>
       </c>
       <c r="L5">
-        <v>0.0049</v>
+        <v>0.004931684210526316</v>
       </c>
       <c r="M5">
-        <v>0.0016</v>
+        <v>0.001644891640866873</v>
       </c>
       <c r="N5">
-        <v>0.0176</v>
+        <v>0.01755099380804953</v>
       </c>
       <c r="O5">
-        <v>0.0266</v>
+        <v>0.02659241486068111</v>
       </c>
       <c r="P5">
-        <v>0.008999999999999999</v>
+        <v>0.009041421052631581</v>
       </c>
       <c r="Q5">
-        <v>0.0041</v>
+        <v>0.004086613003095975</v>
       </c>
       <c r="R5">
-        <v>0.0001</v>
+        <v>0.000126390092879257</v>
       </c>
       <c r="S5">
-        <v>0.0062</v>
+        <v>0.006193114551083591</v>
       </c>
       <c r="T5">
-        <v>0.1402</v>
+        <v>0.1401708260061919</v>
       </c>
       <c r="U5">
-        <v>0.02</v>
+        <v>0.02002440371517028</v>
       </c>
       <c r="V5">
-        <v>0.03</v>
+        <v>0.03003660557275541</v>
       </c>
       <c r="W5">
-        <v>0.01</v>
+        <v>0.01001220185758514</v>
       </c>
       <c r="X5">
-        <v>0.0005</v>
+        <v>0.0004513931888544891</v>
       </c>
       <c r="Y5">
-        <v>0.0048</v>
+        <v>0.004816365325077399</v>
       </c>
       <c r="Z5">
-        <v>0.0073</v>
+        <v>0.007297523219814241</v>
       </c>
       <c r="AA5">
-        <v>0.0025</v>
+        <v>0.002481157894736842</v>
       </c>
       <c r="AB5">
-        <v>0.0008</v>
+        <v>0.0007523219814241487</v>
       </c>
       <c r="AC5">
-        <v>0.008</v>
+        <v>0.008027275541795666</v>
       </c>
       <c r="AD5">
-        <v>0.0122</v>
+        <v>0.01216253869969041</v>
       </c>
       <c r="AE5">
-        <v>0.0041</v>
+        <v>0.004135263157894737</v>
       </c>
       <c r="AF5">
-        <v>0.0402</v>
+        <v>0.04019080882352941</v>
       </c>
       <c r="AG5">
-        <v>0.0012</v>
+        <v>0.001243014705882353</v>
       </c>
       <c r="AH5">
-        <v>0.0059</v>
+        <v>0.005859926470588235</v>
       </c>
       <c r="AI5">
-        <v>0.1326</v>
+        <v>0.132629669117647</v>
       </c>
       <c r="AJ5">
-        <v>0.0189</v>
+        <v>0.01894709558823529</v>
       </c>
       <c r="AK5">
-        <v>0.0284</v>
+        <v>0.02842064338235293</v>
       </c>
       <c r="AL5">
-        <v>0.0095</v>
+        <v>0.009473547794117645</v>
       </c>
       <c r="AM5">
-        <v>0.0001</v>
+        <v>0.0001495356037151703</v>
       </c>
       <c r="AN5">
-        <v>0.0016</v>
+        <v>0.001595544891640867</v>
       </c>
       <c r="AO5">
-        <v>0.0024</v>
+        <v>0.002417492260061919</v>
       </c>
       <c r="AP5">
-        <v>0.0008</v>
+        <v>0.0008219473684210525</v>
       </c>
       <c r="AQ5">
-        <v>0.0001</v>
+        <v>0.0001495356037151703</v>
       </c>
       <c r="AR5">
-        <v>0.0016</v>
+        <v>0.001595544891640867</v>
       </c>
       <c r="AS5">
-        <v>0.0024</v>
+        <v>0.002417492260061919</v>
       </c>
       <c r="AT5">
-        <v>0.0008</v>
+        <v>0.0008219473684210525</v>
       </c>
       <c r="AU5">
-        <v>0.06560000000000001</v>
+        <v>0.06555608359133128</v>
       </c>
       <c r="AV5">
-        <v>0.002</v>
+        <v>0.00202750773993808</v>
       </c>
       <c r="AW5">
-        <v>0.0053</v>
+        <v>0.005345247678018575</v>
       </c>
       <c r="AX5">
-        <v>0.121</v>
+        <v>0.1209807724458204</v>
       </c>
       <c r="AY5">
-        <v>0.0173</v>
+        <v>0.01728296749226006</v>
       </c>
       <c r="AZ5">
-        <v>0.0259</v>
+        <v>0.02592445123839009</v>
       </c>
       <c r="BA5">
-        <v>0.0086</v>
+        <v>0.008641483746130031</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1447,16 +1447,16 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0002</v>
+        <v>0.0001504643962848297</v>
       </c>
       <c r="BG5">
-        <v>0.0016</v>
+        <v>0.001605455108359133</v>
       </c>
       <c r="BH5">
-        <v>0.0024</v>
+        <v>0.002432507739938081</v>
       </c>
       <c r="BI5">
-        <v>0.0008</v>
+        <v>0.0008270526315789473</v>
       </c>
     </row>
     <row r="6" spans="1:61">
@@ -1470,154 +1470,154 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005</v>
+        <v>0.004958669001751314</v>
       </c>
       <c r="E6">
-        <v>0.1122</v>
+        <v>0.1122312084063047</v>
       </c>
       <c r="F6">
-        <v>0.016</v>
+        <v>0.01603302977232925</v>
       </c>
       <c r="G6">
-        <v>0.024</v>
+        <v>0.02404954465849387</v>
       </c>
       <c r="H6">
-        <v>0.008</v>
+        <v>0.008016514886164625</v>
       </c>
       <c r="I6">
-        <v>0.0009</v>
+        <v>0.0009015761821366025</v>
       </c>
       <c r="J6">
-        <v>0.009599999999999999</v>
+        <v>0.009619817863397547</v>
       </c>
       <c r="K6">
-        <v>0.0146</v>
+        <v>0.01457548161120841</v>
       </c>
       <c r="L6">
-        <v>0.005</v>
+        <v>0.004955663747810858</v>
       </c>
       <c r="M6">
-        <v>0.0017</v>
+        <v>0.001652889667250438</v>
       </c>
       <c r="N6">
-        <v>0.0176</v>
+        <v>0.01763633274956217</v>
       </c>
       <c r="O6">
-        <v>0.0267</v>
+        <v>0.02672171628721541</v>
       </c>
       <c r="P6">
-        <v>0.0091</v>
+        <v>0.009085383537653242</v>
       </c>
       <c r="Q6">
-        <v>0.0041</v>
+        <v>0.004081134851138354</v>
       </c>
       <c r="R6">
-        <v>0.0001</v>
+        <v>0.0001262206654991244</v>
       </c>
       <c r="S6">
-        <v>0.0062</v>
+        <v>0.006184812609457092</v>
       </c>
       <c r="T6">
-        <v>0.14</v>
+        <v>0.1399829253940455</v>
       </c>
       <c r="U6">
-        <v>0.02</v>
+        <v>0.01999756077057793</v>
       </c>
       <c r="V6">
-        <v>0.03</v>
+        <v>0.0299963411558669</v>
       </c>
       <c r="W6">
-        <v>0.01</v>
+        <v>0.009998780385288966</v>
       </c>
       <c r="X6">
-        <v>0.0005</v>
+        <v>0.0004507880910683013</v>
       </c>
       <c r="Y6">
-        <v>0.0048</v>
+        <v>0.004809908931698774</v>
       </c>
       <c r="Z6">
-        <v>0.0073</v>
+        <v>0.007287740805604203</v>
       </c>
       <c r="AA6">
-        <v>0.0025</v>
+        <v>0.002477831873905429</v>
       </c>
       <c r="AB6">
-        <v>0.0008</v>
+        <v>0.0007513134851138355</v>
       </c>
       <c r="AC6">
-        <v>0.008</v>
+        <v>0.008016514886164625</v>
       </c>
       <c r="AD6">
-        <v>0.0121</v>
+        <v>0.01214623467600701</v>
       </c>
       <c r="AE6">
-        <v>0.0041</v>
+        <v>0.004129719789842382</v>
       </c>
       <c r="AF6">
-        <v>0.0404</v>
+        <v>0.04038623029772329</v>
       </c>
       <c r="AG6">
-        <v>0.0012</v>
+        <v>0.001249058669001751</v>
       </c>
       <c r="AH6">
-        <v>0.0059</v>
+        <v>0.005888419439579685</v>
       </c>
       <c r="AI6">
-        <v>0.1333</v>
+        <v>0.1332745599824869</v>
       </c>
       <c r="AJ6">
-        <v>0.019</v>
+        <v>0.01903922285464098</v>
       </c>
       <c r="AK6">
-        <v>0.0286</v>
+        <v>0.02855883428196147</v>
       </c>
       <c r="AL6">
-        <v>0.0095</v>
+        <v>0.009519611427320489</v>
       </c>
       <c r="AM6">
-        <v>0.0002</v>
+        <v>0.0001502626970227671</v>
       </c>
       <c r="AN6">
-        <v>0.0016</v>
+        <v>0.001603302977232925</v>
       </c>
       <c r="AO6">
-        <v>0.0024</v>
+        <v>0.002429246935201401</v>
       </c>
       <c r="AP6">
-        <v>0.0008</v>
+        <v>0.0008259439579684763</v>
       </c>
       <c r="AQ6">
-        <v>0.0002</v>
+        <v>0.0001502626970227671</v>
       </c>
       <c r="AR6">
-        <v>0.0016</v>
+        <v>0.001603302977232925</v>
       </c>
       <c r="AS6">
-        <v>0.0024</v>
+        <v>0.002429246935201401</v>
       </c>
       <c r="AT6">
-        <v>0.0008</v>
+        <v>0.0008259439579684763</v>
       </c>
       <c r="AU6">
-        <v>0.065</v>
+        <v>0.06501038528896673</v>
       </c>
       <c r="AV6">
-        <v>0.002</v>
+        <v>0.002010630472854641</v>
       </c>
       <c r="AW6">
-        <v>0.0053</v>
+        <v>0.005300753064798598</v>
       </c>
       <c r="AX6">
-        <v>0.12</v>
+        <v>0.1199737110332749</v>
       </c>
       <c r="AY6">
-        <v>0.0171</v>
+        <v>0.01713910157618213</v>
       </c>
       <c r="AZ6">
-        <v>0.0257</v>
+        <v>0.0257086523642732</v>
       </c>
       <c r="BA6">
-        <v>0.0086</v>
+        <v>0.008569550788091067</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -1632,16 +1632,16 @@
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0001</v>
+        <v>0.0001492119089316988</v>
       </c>
       <c r="BG6">
-        <v>0.0016</v>
+        <v>0.001592091068301226</v>
       </c>
       <c r="BH6">
-        <v>0.0024</v>
+        <v>0.002412259194395797</v>
       </c>
       <c r="BI6">
-        <v>0.0008</v>
+        <v>0.0008201681260945708</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -1655,28 +1655,28 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0052</v>
+        <v>0.005249999999999999</v>
       </c>
       <c r="E7">
-        <v>0.1443</v>
+        <v>0.1442875</v>
       </c>
       <c r="F7">
-        <v>0.008500000000000001</v>
+        <v>0.008487499999999999</v>
       </c>
       <c r="G7">
-        <v>0.017</v>
+        <v>0.016975</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0008</v>
+        <v>0.00075</v>
       </c>
       <c r="J7">
-        <v>0.008</v>
+        <v>0.008002500000000001</v>
       </c>
       <c r="K7">
-        <v>0.0162</v>
+        <v>0.0162475</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1685,145 +1685,145 @@
         <v>0.0015</v>
       </c>
       <c r="N7">
-        <v>0.016</v>
+        <v>0.016005</v>
       </c>
       <c r="O7">
-        <v>0.0325</v>
+        <v>0.032495</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0042</v>
+        <v>0.004171</v>
       </c>
       <c r="R7">
-        <v>0.0001</v>
+        <v>0.000129</v>
       </c>
       <c r="S7">
-        <v>0.0063</v>
+        <v>0.006320999999999999</v>
       </c>
       <c r="T7">
-        <v>0.1737</v>
+        <v>0.17372215</v>
       </c>
       <c r="U7">
-        <v>0.0102</v>
+        <v>0.01021895</v>
       </c>
       <c r="V7">
-        <v>0.0204</v>
+        <v>0.0204379</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0004</v>
+        <v>0.000375</v>
       </c>
       <c r="Y7">
-        <v>0.004</v>
+        <v>0.00400125</v>
       </c>
       <c r="Z7">
-        <v>0.0081</v>
+        <v>0.008123750000000001</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0007</v>
+        <v>0.0006749999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.0072</v>
+        <v>0.007202249999999999</v>
       </c>
       <c r="AD7">
-        <v>0.0146</v>
+        <v>0.01462275</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.0407</v>
+        <v>0.04073999999999999</v>
       </c>
       <c r="AG7">
-        <v>0.0013</v>
+        <v>0.00126</v>
       </c>
       <c r="AH7">
-        <v>0.0059</v>
+        <v>0.00594</v>
       </c>
       <c r="AI7">
-        <v>0.1633</v>
+        <v>0.163251</v>
       </c>
       <c r="AJ7">
-        <v>0.009599999999999999</v>
+        <v>0.009603</v>
       </c>
       <c r="AK7">
-        <v>0.0192</v>
+        <v>0.019206</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.0001</v>
+        <v>0.00015</v>
       </c>
       <c r="AN7">
-        <v>0.0016</v>
+        <v>0.0016005</v>
       </c>
       <c r="AO7">
-        <v>0.0032</v>
+        <v>0.0032495</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0.0001</v>
+        <v>0.00015</v>
       </c>
       <c r="AR7">
-        <v>0.0016</v>
+        <v>0.0016005</v>
       </c>
       <c r="AS7">
-        <v>0.0032</v>
+        <v>0.0032495</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>0.06469999999999999</v>
+        <v>0.06468687499999999</v>
       </c>
       <c r="AV7">
-        <v>0.002</v>
+        <v>0.002000625</v>
       </c>
       <c r="AW7">
-        <v>0.0053</v>
+        <v>0.005274375</v>
       </c>
       <c r="AX7">
-        <v>0.145</v>
+        <v>0.14495740625</v>
       </c>
       <c r="AY7">
-        <v>0.008500000000000001</v>
+        <v>0.008526906249999999</v>
       </c>
       <c r="AZ7">
-        <v>0.0171</v>
+        <v>0.0170538125</v>
       </c>
       <c r="BA7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0.0001</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="BC7">
-        <v>0.0008</v>
+        <v>0.00080025</v>
       </c>
       <c r="BD7">
-        <v>0.0016</v>
+        <v>0.00162475</v>
       </c>
       <c r="BE7">
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>0.0001</v>
+        <v>0.00015</v>
       </c>
       <c r="BG7">
-        <v>0.0016</v>
+        <v>0.0016005</v>
       </c>
       <c r="BH7">
-        <v>0.0032</v>
+        <v>0.0032495</v>
       </c>
       <c r="BI7">
         <v>0</v>
@@ -1840,178 +1840,178 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0025</v>
+        <v>0.00247424840570908</v>
       </c>
       <c r="E8">
-        <v>0.02</v>
+        <v>0.02000017461281506</v>
       </c>
       <c r="F8">
-        <v>0.02</v>
+        <v>0.02000017461281506</v>
       </c>
       <c r="G8">
-        <v>0.024</v>
+        <v>0.02400020953537808</v>
       </c>
       <c r="H8">
-        <v>0.016</v>
+        <v>0.01600013969025205</v>
       </c>
       <c r="I8">
-        <v>0.0022</v>
+        <v>0.002174339508047373</v>
       </c>
       <c r="J8">
-        <v>0.0232</v>
+        <v>0.02320020255086547</v>
       </c>
       <c r="K8">
-        <v>0.0281</v>
+        <v>0.02812145763741269</v>
       </c>
       <c r="L8">
-        <v>0.019</v>
+        <v>0.01898198390525357</v>
       </c>
       <c r="M8">
-        <v>0.0028</v>
+        <v>0.002849134527786213</v>
       </c>
       <c r="N8">
-        <v>0.0304</v>
+        <v>0.0304002654114789</v>
       </c>
       <c r="O8">
-        <v>0.0368</v>
+        <v>0.03684880655936836</v>
       </c>
       <c r="P8">
-        <v>0.0249</v>
+        <v>0.02487294442757364</v>
       </c>
       <c r="Q8">
-        <v>0.0029</v>
+        <v>0.002864106893410264</v>
       </c>
       <c r="R8">
-        <v>0.0001</v>
+        <v>8.858062556938961E-05</v>
       </c>
       <c r="S8">
-        <v>0.0043</v>
+        <v>0.00434045065290009</v>
       </c>
       <c r="T8">
-        <v>0.0351</v>
+        <v>0.03508530944427574</v>
       </c>
       <c r="U8">
-        <v>0.0351</v>
+        <v>0.03508530944427574</v>
       </c>
       <c r="V8">
-        <v>0.0421</v>
+        <v>0.04210237133313088</v>
       </c>
       <c r="W8">
-        <v>0.0281</v>
+        <v>0.02806824755542059</v>
       </c>
       <c r="X8">
-        <v>0.0015</v>
+        <v>0.0015013665350744</v>
       </c>
       <c r="Y8">
-        <v>0.016</v>
+        <v>0.01601958092924385</v>
       </c>
       <c r="Z8">
-        <v>0.0194</v>
+        <v>0.01941767385362891</v>
       </c>
       <c r="AA8">
-        <v>0.0131</v>
+        <v>0.01310692985119952</v>
       </c>
       <c r="AB8">
-        <v>0.0016</v>
+        <v>0.00157643486182812</v>
       </c>
       <c r="AC8">
-        <v>0.0168</v>
+        <v>0.01682055997570604</v>
       </c>
       <c r="AD8">
-        <v>0.0204</v>
+        <v>0.02038855754631035</v>
       </c>
       <c r="AE8">
-        <v>0.0138</v>
+        <v>0.01376227634375949</v>
       </c>
       <c r="AF8">
-        <v>0.0331</v>
+        <v>0.03309119799574855</v>
       </c>
       <c r="AG8">
-        <v>0.001</v>
+        <v>0.001023439113270574</v>
       </c>
       <c r="AH8">
-        <v>0.0048</v>
+        <v>0.004824784391132706</v>
       </c>
       <c r="AI8">
-        <v>0.039</v>
+        <v>0.03900034049498938</v>
       </c>
       <c r="AJ8">
-        <v>0.039</v>
+        <v>0.03900034049498938</v>
       </c>
       <c r="AK8">
-        <v>0.0468</v>
+        <v>0.04680040859398725</v>
       </c>
       <c r="AL8">
-        <v>0.0312</v>
+        <v>0.0312002723959915</v>
       </c>
       <c r="AM8">
-        <v>0.001</v>
+        <v>0.001049681141815973</v>
       </c>
       <c r="AN8">
-        <v>0.0112</v>
+        <v>0.01120009778317644</v>
       </c>
       <c r="AO8">
-        <v>0.0136</v>
+        <v>0.01357587610081992</v>
       </c>
       <c r="AP8">
-        <v>0.0092</v>
+        <v>0.009163716368053448</v>
       </c>
       <c r="AQ8">
-        <v>0.0007</v>
+        <v>0.00067479501973884</v>
       </c>
       <c r="AR8">
-        <v>0.0072</v>
+        <v>0.007200062860613421</v>
       </c>
       <c r="AS8">
-        <v>0.008699999999999999</v>
+        <v>0.008727348921955662</v>
       </c>
       <c r="AT8">
-        <v>0.0059</v>
+        <v>0.005890960522320072</v>
       </c>
       <c r="AU8">
-        <v>0.06270000000000001</v>
+        <v>0.06266721378682052</v>
       </c>
       <c r="AV8">
-        <v>0.0019</v>
+        <v>0.001938161251138779</v>
       </c>
       <c r="AW8">
-        <v>0.0051</v>
+        <v>0.005109697843911327</v>
       </c>
       <c r="AX8">
-        <v>0.0413</v>
+        <v>0.0413033909049499</v>
       </c>
       <c r="AY8">
-        <v>0.0413</v>
+        <v>0.0413033909049499</v>
       </c>
       <c r="AZ8">
-        <v>0.0496</v>
+        <v>0.04956406908593988</v>
       </c>
       <c r="BA8">
-        <v>0.033</v>
+        <v>0.03304271272395991</v>
       </c>
       <c r="BB8">
-        <v>0.0003</v>
+        <v>0.0002999088976617066</v>
       </c>
       <c r="BC8">
-        <v>0.0032</v>
+        <v>0.00320002793805041</v>
       </c>
       <c r="BD8">
-        <v>0.0039</v>
+        <v>0.003878821743091406</v>
       </c>
       <c r="BE8">
-        <v>0.0026</v>
+        <v>0.002618204676586699</v>
       </c>
       <c r="BF8">
-        <v>0.0001</v>
+        <v>0.0001499544488308533</v>
       </c>
       <c r="BG8">
-        <v>0.0016</v>
+        <v>0.001600013969025205</v>
       </c>
       <c r="BH8">
-        <v>0.0019</v>
+        <v>0.001939410871545703</v>
       </c>
       <c r="BI8">
-        <v>0.0013</v>
+        <v>0.00130910233829335</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -2025,178 +2025,178 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0045</v>
+        <v>0.00448910411622276</v>
       </c>
       <c r="E9">
-        <v>0.0726</v>
+        <v>0.07257384987893462</v>
       </c>
       <c r="F9">
-        <v>0.029</v>
+        <v>0.02902953995157385</v>
       </c>
       <c r="G9">
-        <v>0.0363</v>
+        <v>0.03628692493946731</v>
       </c>
       <c r="H9">
-        <v>0.0073</v>
+        <v>0.007257384987893462</v>
       </c>
       <c r="I9">
-        <v>0.0011</v>
+        <v>0.00112227602905569</v>
       </c>
       <c r="J9">
-        <v>0.0145</v>
+        <v>0.01451476997578692</v>
       </c>
       <c r="K9">
-        <v>0.0181</v>
+        <v>0.01814346246973365</v>
       </c>
       <c r="L9">
-        <v>0.0036</v>
+        <v>0.003628692493946731</v>
       </c>
       <c r="M9">
-        <v>0.0019</v>
+        <v>0.00187046004842615</v>
       </c>
       <c r="N9">
-        <v>0.0242</v>
+        <v>0.02419128329297821</v>
       </c>
       <c r="O9">
-        <v>0.0302</v>
+        <v>0.03023910411622276</v>
       </c>
       <c r="P9">
-        <v>0.006</v>
+        <v>0.006047820823244551</v>
       </c>
       <c r="Q9">
-        <v>0.0039</v>
+        <v>0.003889394673123487</v>
       </c>
       <c r="R9">
-        <v>0.0001</v>
+        <v>0.0001202905569007264</v>
       </c>
       <c r="S9">
-        <v>0.0059</v>
+        <v>0.005894237288135594</v>
       </c>
       <c r="T9">
-        <v>0.0953</v>
+        <v>0.09529016949152543</v>
       </c>
       <c r="U9">
-        <v>0.0381</v>
+        <v>0.03811606779661017</v>
       </c>
       <c r="V9">
-        <v>0.0476</v>
+        <v>0.04764508474576271</v>
       </c>
       <c r="W9">
-        <v>0.0095</v>
+        <v>0.009529016949152543</v>
       </c>
       <c r="X9">
-        <v>0.0005999999999999999</v>
+        <v>0.0006014527845036319</v>
       </c>
       <c r="Y9">
-        <v>0.0078</v>
+        <v>0.007778789346246974</v>
       </c>
       <c r="Z9">
-        <v>0.0097</v>
+        <v>0.009723486682808717</v>
       </c>
       <c r="AA9">
-        <v>0.0019</v>
+        <v>0.001944697336561744</v>
       </c>
       <c r="AB9">
-        <v>0.0009</v>
+        <v>0.000902179176755448</v>
       </c>
       <c r="AC9">
-        <v>0.0117</v>
+        <v>0.01166818401937046</v>
       </c>
       <c r="AD9">
-        <v>0.0146</v>
+        <v>0.01458523002421307</v>
       </c>
       <c r="AE9">
-        <v>0.0029</v>
+        <v>0.002917046004842615</v>
       </c>
       <c r="AF9">
-        <v>0.0398</v>
+        <v>0.03979466101694915</v>
       </c>
       <c r="AG9">
-        <v>0.0012</v>
+        <v>0.001230762711864407</v>
       </c>
       <c r="AH9">
-        <v>0.0058</v>
+        <v>0.005802167070217917</v>
       </c>
       <c r="AI9">
-        <v>0.09379999999999999</v>
+        <v>0.093801700968523</v>
       </c>
       <c r="AJ9">
-        <v>0.0375</v>
+        <v>0.0375206803874092</v>
       </c>
       <c r="AK9">
-        <v>0.0469</v>
+        <v>0.0469008504842615</v>
       </c>
       <c r="AL9">
-        <v>0.0094</v>
+        <v>0.009380170096852301</v>
       </c>
       <c r="AM9">
-        <v>0.0002</v>
+        <v>0.000224455205811138</v>
       </c>
       <c r="AN9">
-        <v>0.0029</v>
+        <v>0.002902953995157385</v>
       </c>
       <c r="AO9">
-        <v>0.0036</v>
+        <v>0.003628692493946731</v>
       </c>
       <c r="AP9">
-        <v>0.0007</v>
+        <v>0.0007257384987893462</v>
       </c>
       <c r="AQ9">
-        <v>0.0002</v>
+        <v>0.000224455205811138</v>
       </c>
       <c r="AR9">
-        <v>0.0029</v>
+        <v>0.002902953995157385</v>
       </c>
       <c r="AS9">
-        <v>0.0036</v>
+        <v>0.003628692493946731</v>
       </c>
       <c r="AT9">
-        <v>0.0007</v>
+        <v>0.0007257384987893462</v>
       </c>
       <c r="AU9">
-        <v>0.0648</v>
+        <v>0.06484350181598063</v>
       </c>
       <c r="AV9">
-        <v>0.002</v>
+        <v>0.002005469128329298</v>
       </c>
       <c r="AW9">
-        <v>0.0053</v>
+        <v>0.00528714588377724</v>
       </c>
       <c r="AX9">
-        <v>0.08550000000000001</v>
+        <v>0.08547552512106538</v>
       </c>
       <c r="AY9">
-        <v>0.0342</v>
+        <v>0.03419021004842614</v>
       </c>
       <c r="AZ9">
-        <v>0.0427</v>
+        <v>0.04273776256053269</v>
       </c>
       <c r="BA9">
-        <v>0.008500000000000001</v>
+        <v>0.008547552512106536</v>
       </c>
       <c r="BB9">
-        <v>0.0001</v>
+        <v>7.518159806295399E-05</v>
       </c>
       <c r="BC9">
-        <v>0.001</v>
+        <v>0.0009723486682808718</v>
       </c>
       <c r="BD9">
-        <v>0.0012</v>
+        <v>0.00121543583535109</v>
       </c>
       <c r="BE9">
-        <v>0.0002</v>
+        <v>0.0002430871670702179</v>
       </c>
       <c r="BF9">
-        <v>0.0002</v>
+        <v>0.000150363196125908</v>
       </c>
       <c r="BG9">
-        <v>0.0019</v>
+        <v>0.001944697336561744</v>
       </c>
       <c r="BH9">
-        <v>0.0024</v>
+        <v>0.002430871670702179</v>
       </c>
       <c r="BI9">
-        <v>0.0005</v>
+        <v>0.0004861743341404359</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -2210,175 +2210,175 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0053</v>
+        <v>0.005280346820809249</v>
       </c>
       <c r="E10">
-        <v>0.1451</v>
+        <v>0.1451215317919075</v>
       </c>
       <c r="F10">
-        <v>0.008500000000000001</v>
+        <v>0.008536560693641617</v>
       </c>
       <c r="G10">
-        <v>0.0171</v>
+        <v>0.01707312138728323</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0008</v>
+        <v>0.000754335260115607</v>
       </c>
       <c r="J10">
-        <v>0.008</v>
+        <v>0.008048757225433528</v>
       </c>
       <c r="K10">
-        <v>0.0163</v>
+        <v>0.0163414161849711</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0015</v>
+        <v>0.001508670520231214</v>
       </c>
       <c r="N10">
-        <v>0.0161</v>
+        <v>0.01609751445086706</v>
       </c>
       <c r="O10">
-        <v>0.0327</v>
+        <v>0.0326828323699422</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.0041</v>
+        <v>0.004146890173410404</v>
       </c>
       <c r="R10">
-        <v>0.0001</v>
+        <v>0.0001282543352601156</v>
       </c>
       <c r="S10">
-        <v>0.0063</v>
+        <v>0.006284462427745664</v>
       </c>
       <c r="T10">
-        <v>0.1727</v>
+        <v>0.1727179757225434</v>
       </c>
       <c r="U10">
-        <v>0.0102</v>
+        <v>0.01015988092485549</v>
       </c>
       <c r="V10">
-        <v>0.0203</v>
+        <v>0.02031976184971098</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.0004</v>
+        <v>0.0003728323699421965</v>
       </c>
       <c r="Y10">
-        <v>0.004</v>
+        <v>0.003978121387283237</v>
       </c>
       <c r="Z10">
-        <v>0.0081</v>
+        <v>0.008076791907514451</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.0007</v>
+        <v>0.0006710982658959537</v>
       </c>
       <c r="AC10">
-        <v>0.0072</v>
+        <v>0.007160618497109825</v>
       </c>
       <c r="AD10">
-        <v>0.0145</v>
+        <v>0.01453822543352601</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.041</v>
+        <v>0.04097549132947977</v>
       </c>
       <c r="AG10">
-        <v>0.0013</v>
+        <v>0.00126728323699422</v>
       </c>
       <c r="AH10">
-        <v>0.006</v>
+        <v>0.005974335260115607</v>
       </c>
       <c r="AI10">
-        <v>0.1642</v>
+        <v>0.1641946473988439</v>
       </c>
       <c r="AJ10">
-        <v>0.0097</v>
+        <v>0.009658508670520233</v>
       </c>
       <c r="AK10">
-        <v>0.0193</v>
+        <v>0.01931701734104047</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.0002</v>
+        <v>0.0001508670520231214</v>
       </c>
       <c r="AN10">
-        <v>0.0016</v>
+        <v>0.001609751445086705</v>
       </c>
       <c r="AO10">
-        <v>0.0033</v>
+        <v>0.00326828323699422</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.0002</v>
+        <v>0.0001508670520231214</v>
       </c>
       <c r="AR10">
-        <v>0.0016</v>
+        <v>0.001609751445086705</v>
       </c>
       <c r="AS10">
-        <v>0.0033</v>
+        <v>0.00326828323699422</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.0643</v>
+        <v>0.06431296242774565</v>
       </c>
       <c r="AV10">
-        <v>0.002</v>
+        <v>0.001989060693641618</v>
       </c>
       <c r="AW10">
-        <v>0.0052</v>
+        <v>0.005243887283236994</v>
       </c>
       <c r="AX10">
-        <v>0.1441</v>
+        <v>0.14411950216763</v>
       </c>
       <c r="AY10">
-        <v>0.008500000000000001</v>
+        <v>0.008477617774566473</v>
       </c>
       <c r="AZ10">
-        <v>0.017</v>
+        <v>0.01695523554913295</v>
       </c>
       <c r="BA10">
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>0.0001</v>
+        <v>7.45664739884393E-05</v>
       </c>
       <c r="BC10">
-        <v>0.0008</v>
+        <v>0.0007956242774566473</v>
       </c>
       <c r="BD10">
-        <v>0.0016</v>
+        <v>0.00161535838150289</v>
       </c>
       <c r="BE10">
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>0.0001</v>
+        <v>0.0001491329479768786</v>
       </c>
       <c r="BG10">
-        <v>0.0016</v>
+        <v>0.001591248554913295</v>
       </c>
       <c r="BH10">
-        <v>0.0032</v>
+        <v>0.00323071676300578</v>
       </c>
       <c r="BI10">
         <v>0</v>
@@ -2395,175 +2395,175 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0054</v>
+        <v>0.005419354838709677</v>
       </c>
       <c r="E11">
-        <v>0.1489</v>
+        <v>0.1489419354838709</v>
       </c>
       <c r="F11">
-        <v>0.008800000000000001</v>
+        <v>0.008761290322580644</v>
       </c>
       <c r="G11">
-        <v>0.0175</v>
+        <v>0.01752258064516129</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0008</v>
+        <v>0.0007741935483870968</v>
       </c>
       <c r="J11">
-        <v>0.0083</v>
+        <v>0.008260645161290324</v>
       </c>
       <c r="K11">
-        <v>0.0168</v>
+        <v>0.01677161290322581</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0015</v>
+        <v>0.001548387096774194</v>
       </c>
       <c r="N11">
-        <v>0.0165</v>
+        <v>0.01652129032258065</v>
       </c>
       <c r="O11">
-        <v>0.0335</v>
+        <v>0.03354322580645162</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.004</v>
+        <v>0.004036451612903226</v>
       </c>
       <c r="R11">
-        <v>0.0001</v>
+        <v>0.0001248387096774193</v>
       </c>
       <c r="S11">
-        <v>0.0061</v>
+        <v>0.006117096774193548</v>
       </c>
       <c r="T11">
-        <v>0.1681</v>
+        <v>0.1681182096774194</v>
       </c>
       <c r="U11">
-        <v>0.009900000000000001</v>
+        <v>0.009889306451612902</v>
       </c>
       <c r="V11">
-        <v>0.0198</v>
+        <v>0.0197786129032258</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.0004</v>
+        <v>0.0003629032258064516</v>
       </c>
       <c r="Y11">
-        <v>0.0039</v>
+        <v>0.003872177419354839</v>
       </c>
       <c r="Z11">
-        <v>0.007900000000000001</v>
+        <v>0.007861693548387097</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.0007</v>
+        <v>0.0006532258064516129</v>
       </c>
       <c r="AC11">
-        <v>0.007</v>
+        <v>0.006969919354838709</v>
       </c>
       <c r="AD11">
-        <v>0.0142</v>
+        <v>0.01415104838709677</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.0394</v>
+        <v>0.03942580645161289</v>
       </c>
       <c r="AG11">
-        <v>0.0012</v>
+        <v>0.001219354838709677</v>
       </c>
       <c r="AH11">
-        <v>0.0057</v>
+        <v>0.005748387096774193</v>
       </c>
       <c r="AI11">
-        <v>0.158</v>
+        <v>0.1579848387096774</v>
       </c>
       <c r="AJ11">
-        <v>0.009299999999999999</v>
+        <v>0.009293225806451614</v>
       </c>
       <c r="AK11">
-        <v>0.0186</v>
+        <v>0.01858645161290323</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.0001</v>
+        <v>0.0001451612903225806</v>
       </c>
       <c r="AN11">
-        <v>0.0015</v>
+        <v>0.001548870967741936</v>
       </c>
       <c r="AO11">
-        <v>0.0031</v>
+        <v>0.003144677419354839</v>
       </c>
       <c r="AP11">
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.0001</v>
+        <v>0.0001451612903225806</v>
       </c>
       <c r="AR11">
-        <v>0.0015</v>
+        <v>0.001548870967741936</v>
       </c>
       <c r="AS11">
-        <v>0.0031</v>
+        <v>0.003144677419354839</v>
       </c>
       <c r="AT11">
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.0668</v>
+        <v>0.06677354838709676</v>
       </c>
       <c r="AV11">
-        <v>0.0021</v>
+        <v>0.00206516129032258</v>
       </c>
       <c r="AW11">
-        <v>0.0054</v>
+        <v>0.005444516129032257</v>
       </c>
       <c r="AX11">
-        <v>0.1496</v>
+        <v>0.1496334516129032</v>
       </c>
       <c r="AY11">
-        <v>0.008800000000000001</v>
+        <v>0.008801967741935483</v>
       </c>
       <c r="AZ11">
-        <v>0.0176</v>
+        <v>0.01760393548387097</v>
       </c>
       <c r="BA11">
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.0001</v>
+        <v>7.741935483870967E-05</v>
       </c>
       <c r="BC11">
-        <v>0.0008</v>
+        <v>0.0008260645161290321</v>
       </c>
       <c r="BD11">
-        <v>0.0017</v>
+        <v>0.001677161290322581</v>
       </c>
       <c r="BE11">
         <v>0</v>
       </c>
       <c r="BF11">
-        <v>0.0002</v>
+        <v>0.0001548387096774193</v>
       </c>
       <c r="BG11">
-        <v>0.0017</v>
+        <v>0.001652129032258064</v>
       </c>
       <c r="BH11">
-        <v>0.0034</v>
+        <v>0.003354322580645162</v>
       </c>
       <c r="BI11">
         <v>0</v>
@@ -2580,175 +2580,175 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0052</v>
+        <v>0.005183544303797468</v>
       </c>
       <c r="E12">
-        <v>0.1425</v>
+        <v>0.1424610759493671</v>
       </c>
       <c r="F12">
-        <v>0.008399999999999999</v>
+        <v>0.00838006329113924</v>
       </c>
       <c r="G12">
-        <v>0.0168</v>
+        <v>0.01676012658227848</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0007</v>
+        <v>0.0007405063291139241</v>
       </c>
       <c r="J12">
-        <v>0.007900000000000001</v>
+        <v>0.007901202531645571</v>
       </c>
       <c r="K12">
-        <v>0.016</v>
+        <v>0.01604183544303798</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0015</v>
+        <v>0.001481012658227848</v>
       </c>
       <c r="N12">
-        <v>0.0158</v>
+        <v>0.01580240506329114</v>
       </c>
       <c r="O12">
-        <v>0.0321</v>
+        <v>0.03208367088607595</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.0042</v>
+        <v>0.004223797468354431</v>
       </c>
       <c r="R12">
-        <v>0.0001</v>
+        <v>0.0001306329113924051</v>
       </c>
       <c r="S12">
-        <v>0.0064</v>
+        <v>0.006401012658227848</v>
       </c>
       <c r="T12">
-        <v>0.1759</v>
+        <v>0.1759211645569621</v>
       </c>
       <c r="U12">
-        <v>0.0103</v>
+        <v>0.01034830379746835</v>
       </c>
       <c r="V12">
-        <v>0.0207</v>
+        <v>0.02069660759493671</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0.0004</v>
+        <v>0.000379746835443038</v>
       </c>
       <c r="Y12">
-        <v>0.0041</v>
+        <v>0.004051898734177216</v>
       </c>
       <c r="Z12">
-        <v>0.008200000000000001</v>
+        <v>0.008226582278481014</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.0007</v>
+        <v>0.0006835443037974683</v>
       </c>
       <c r="AC12">
-        <v>0.0073</v>
+        <v>0.007293417721518986</v>
       </c>
       <c r="AD12">
-        <v>0.0148</v>
+        <v>0.01480784810126582</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.0413</v>
+        <v>0.04125569620253164</v>
       </c>
       <c r="AG12">
-        <v>0.0013</v>
+        <v>0.001275949367088608</v>
       </c>
       <c r="AH12">
-        <v>0.006</v>
+        <v>0.006015189873417722</v>
       </c>
       <c r="AI12">
-        <v>0.1653</v>
+        <v>0.1653174683544304</v>
       </c>
       <c r="AJ12">
-        <v>0.0097</v>
+        <v>0.009724556962025318</v>
       </c>
       <c r="AK12">
-        <v>0.0194</v>
+        <v>0.01944911392405064</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0.0002</v>
+        <v>0.0001518987341772152</v>
       </c>
       <c r="AN12">
-        <v>0.0016</v>
+        <v>0.001620759493670886</v>
       </c>
       <c r="AO12">
-        <v>0.0033</v>
+        <v>0.003290632911392405</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0.0002</v>
+        <v>0.0001518987341772152</v>
       </c>
       <c r="AR12">
-        <v>0.0016</v>
+        <v>0.001620759493670886</v>
       </c>
       <c r="AS12">
-        <v>0.0033</v>
+        <v>0.003290632911392405</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>0.0639</v>
+        <v>0.06386805379746835</v>
       </c>
       <c r="AV12">
-        <v>0.002</v>
+        <v>0.001975300632911392</v>
       </c>
       <c r="AW12">
-        <v>0.0052</v>
+        <v>0.005207610759493671</v>
       </c>
       <c r="AX12">
-        <v>0.1431</v>
+        <v>0.1431225023734177</v>
       </c>
       <c r="AY12">
-        <v>0.008399999999999999</v>
+        <v>0.008418970727848101</v>
       </c>
       <c r="AZ12">
-        <v>0.0168</v>
+        <v>0.0168379414556962</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0.0001</v>
+        <v>7.40506329113924E-05</v>
       </c>
       <c r="BC12">
-        <v>0.0008</v>
+        <v>0.000790120253164557</v>
       </c>
       <c r="BD12">
-        <v>0.0016</v>
+        <v>0.001604183544303798</v>
       </c>
       <c r="BE12">
         <v>0</v>
       </c>
       <c r="BF12">
-        <v>0.0001</v>
+        <v>0.0001481012658227848</v>
       </c>
       <c r="BG12">
-        <v>0.0016</v>
+        <v>0.001580240506329114</v>
       </c>
       <c r="BH12">
-        <v>0.0032</v>
+        <v>0.003208367088607595</v>
       </c>
       <c r="BI12">
         <v>0</v>
@@ -2765,175 +2765,175 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0053</v>
+        <v>0.005276923076923077</v>
       </c>
       <c r="E13">
-        <v>0.145</v>
+        <v>0.1450274358974359</v>
       </c>
       <c r="F13">
-        <v>0.008500000000000001</v>
+        <v>0.00853102564102564</v>
       </c>
       <c r="G13">
-        <v>0.0171</v>
+        <v>0.01706205128205128</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0008</v>
+        <v>0.0007538461538461539</v>
       </c>
       <c r="J13">
-        <v>0.008</v>
+        <v>0.008043538461538463</v>
       </c>
       <c r="K13">
-        <v>0.0163</v>
+        <v>0.01633082051282051</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0015</v>
+        <v>0.001507692307692308</v>
       </c>
       <c r="N13">
-        <v>0.0161</v>
+        <v>0.01608707692307693</v>
       </c>
       <c r="O13">
-        <v>0.0327</v>
+        <v>0.03266164102564103</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.0041</v>
+        <v>0.00410683076923077</v>
       </c>
       <c r="R13">
-        <v>0.0001</v>
+        <v>0.0001270153846153846</v>
       </c>
       <c r="S13">
-        <v>0.0062</v>
+        <v>0.006223753846153846</v>
       </c>
       <c r="T13">
-        <v>0.171</v>
+        <v>0.1710495015384616</v>
       </c>
       <c r="U13">
-        <v>0.0101</v>
+        <v>0.01006173538461539</v>
       </c>
       <c r="V13">
-        <v>0.0201</v>
+        <v>0.02012347076923077</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0.0004</v>
+        <v>0.0003692307692307693</v>
       </c>
       <c r="Y13">
-        <v>0.0039</v>
+        <v>0.003939692307692308</v>
       </c>
       <c r="Z13">
-        <v>0.008</v>
+        <v>0.007998769230769231</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.0007</v>
+        <v>0.0006646153846153846</v>
       </c>
       <c r="AC13">
-        <v>0.0071</v>
+        <v>0.007091446153846153</v>
       </c>
       <c r="AD13">
-        <v>0.0144</v>
+        <v>0.01439778461538461</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.0409</v>
+        <v>0.04094892307692307</v>
       </c>
       <c r="AG13">
-        <v>0.0013</v>
+        <v>0.001266461538461538</v>
       </c>
       <c r="AH13">
-        <v>0.006</v>
+        <v>0.005970461538461538</v>
       </c>
       <c r="AI13">
-        <v>0.1641</v>
+        <v>0.1640881846153846</v>
       </c>
       <c r="AJ13">
-        <v>0.0097</v>
+        <v>0.009652246153846154</v>
       </c>
       <c r="AK13">
-        <v>0.0193</v>
+        <v>0.01930449230769231</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0.0002</v>
+        <v>0.0001507692307692307</v>
       </c>
       <c r="AN13">
-        <v>0.0016</v>
+        <v>0.001608707692307692</v>
       </c>
       <c r="AO13">
-        <v>0.0033</v>
+        <v>0.003266164102564103</v>
       </c>
       <c r="AP13">
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0.0002</v>
+        <v>0.0001507692307692307</v>
       </c>
       <c r="AR13">
-        <v>0.0016</v>
+        <v>0.001608707692307692</v>
       </c>
       <c r="AS13">
-        <v>0.0033</v>
+        <v>0.003266164102564103</v>
       </c>
       <c r="AT13">
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0.065</v>
+        <v>0.06501860256410255</v>
       </c>
       <c r="AV13">
-        <v>0.002</v>
+        <v>0.002010884615384615</v>
       </c>
       <c r="AW13">
-        <v>0.0053</v>
+        <v>0.005301423076923076</v>
       </c>
       <c r="AX13">
-        <v>0.1457</v>
+        <v>0.1457007775641025</v>
       </c>
       <c r="AY13">
-        <v>0.0086</v>
+        <v>0.008570633974358973</v>
       </c>
       <c r="AZ13">
-        <v>0.0171</v>
+        <v>0.01714126794871795</v>
       </c>
       <c r="BA13">
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0.0001</v>
+        <v>7.538461538461537E-05</v>
       </c>
       <c r="BC13">
-        <v>0.0008</v>
+        <v>0.0008043538461538462</v>
       </c>
       <c r="BD13">
-        <v>0.0016</v>
+        <v>0.001633082051282051</v>
       </c>
       <c r="BE13">
         <v>0</v>
       </c>
       <c r="BF13">
-        <v>0.0002</v>
+        <v>0.0001507692307692307</v>
       </c>
       <c r="BG13">
-        <v>0.0016</v>
+        <v>0.001608707692307692</v>
       </c>
       <c r="BH13">
-        <v>0.0033</v>
+        <v>0.003266164102564103</v>
       </c>
       <c r="BI13">
         <v>0</v>
